--- a/Mercastock/Resources/FICHA RECETA.xlsx
+++ b/Mercastock/Resources/FICHA RECETA.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Alvarez\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\aimee\imagenes cocina\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="7215" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="7215" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReporteInventario" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <definedName name="TOLERANCIA_ERROR">Receta!$J$6</definedName>
     <definedName name="UNIDAD_RECETA">Receta!$A$3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <customWorkbookViews>
     <customWorkbookView name="Receta" guid="{144E6047-E10B-4E01-8FEF-AAF3A3213ABE}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1320" windowHeight="784" activeSheetId="1" showFormulaBar="0"/>
   </customWorkbookViews>
@@ -429,7 +429,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="5">
     <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00;\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
@@ -1755,6 +1755,9 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1767,98 +1770,155 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1882,63 +1942,6 @@
     <xf numFmtId="0" fontId="17" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1952,14 +1955,11 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1976,7 +1976,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="0"/>
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="0" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2155,7 +2155,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2474,25 +2474,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="11.375" style="38"/>
-    <col min="5" max="5" width="11.375" style="17"/>
-    <col min="6" max="6" width="11.375" style="41"/>
-    <col min="7" max="7" width="12.125" style="41" customWidth="1"/>
-    <col min="8" max="9" width="11.375" style="41"/>
-    <col min="10" max="11" width="11.375" style="18"/>
-    <col min="12" max="14" width="11.375" style="41"/>
-    <col min="15" max="15" width="11.375" style="45"/>
-    <col min="16" max="18" width="11.375" style="41"/>
-    <col min="19" max="19" width="11.375" style="18"/>
-    <col min="20" max="20" width="11.375" style="41"/>
-    <col min="21" max="16384" width="11.375" style="4"/>
+    <col min="1" max="4" width="11.42578125" style="38"/>
+    <col min="5" max="5" width="11.42578125" style="17"/>
+    <col min="6" max="6" width="11.42578125" style="41"/>
+    <col min="7" max="7" width="12.140625" style="41" customWidth="1"/>
+    <col min="8" max="9" width="11.42578125" style="41"/>
+    <col min="10" max="11" width="11.42578125" style="18"/>
+    <col min="12" max="14" width="11.42578125" style="41"/>
+    <col min="15" max="15" width="11.42578125" style="45"/>
+    <col min="16" max="18" width="11.42578125" style="41"/>
+    <col min="19" max="19" width="11.42578125" style="18"/>
+    <col min="20" max="20" width="11.42578125" style="41"/>
+    <col min="21" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2621,7 +2623,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" sort="0" autoFilter="0"/>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2629,55 +2631,55 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.625" customWidth="1"/>
-    <col min="3" max="3" width="29.75" customWidth="1"/>
-    <col min="5" max="5" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="225" t="s">
+      <c r="A1" s="168" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="225" t="s">
+      <c r="B1" s="168" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="225" t="s">
+      <c r="C1" s="168" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="225" t="s">
+      <c r="D1" s="168" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="225" t="s">
+      <c r="E1" s="168" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="225" t="s">
+      <c r="F1" s="168" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="225" t="s">
+      <c r="G1" s="168" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="225" t="s">
+      <c r="H1" s="168" t="s">
         <v>112</v>
       </c>
-      <c r="I1" s="225" t="s">
+      <c r="I1" s="168" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="225" t="s">
+      <c r="J1" s="168" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="225" t="s">
+      <c r="K1" s="168" t="s">
         <v>115</v>
       </c>
-      <c r="L1" s="225" t="s">
+      <c r="L1" s="168" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2687,68 +2689,68 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.25" style="4" customWidth="1"/>
-    <col min="2" max="2" width="5.75" style="4" customWidth="1"/>
-    <col min="3" max="3" width="6.625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" style="18" customWidth="1"/>
     <col min="4" max="4" width="8" style="18" customWidth="1"/>
-    <col min="5" max="5" width="7.75" style="4" customWidth="1"/>
-    <col min="6" max="6" width="8.125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="18" customWidth="1"/>
     <col min="7" max="7" width="8" style="18" customWidth="1"/>
     <col min="8" max="8" width="6" style="18" customWidth="1"/>
-    <col min="9" max="9" width="8.25" style="18" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" style="18" customWidth="1"/>
     <col min="10" max="10" width="8" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="11.375" style="4"/>
+    <col min="11" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="169" t="s">
+      <c r="B1" s="170" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
       <c r="G1" s="66" t="s">
         <v>54</v>
       </c>
       <c r="H1" s="66"/>
-      <c r="I1" s="170">
+      <c r="I1" s="171">
         <v>42491</v>
       </c>
-      <c r="J1" s="170"/>
+      <c r="J1" s="171"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
       <c r="G2" s="68" t="s">
         <v>55</v>
       </c>
       <c r="H2" s="68"/>
-      <c r="I2" s="170">
+      <c r="I2" s="171">
         <v>42639</v>
       </c>
-      <c r="J2" s="170"/>
+      <c r="J2" s="171"/>
     </row>
     <row r="3" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="168" t="s">
+      <c r="B3" s="169" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
       <c r="G3" s="67"/>
       <c r="H3" s="67"/>
       <c r="I3" s="65"/>
@@ -2884,74 +2886,74 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.75" style="4" customWidth="1"/>
-    <col min="3" max="4" width="11.375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="4" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" style="4" customWidth="1"/>
     <col min="5" max="5" width="29" style="4" customWidth="1"/>
-    <col min="6" max="6" width="11.375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="19.25" style="4" customWidth="1"/>
-    <col min="8" max="8" width="17.375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="14.875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.375" style="4"/>
+    <col min="6" max="6" width="11.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="191" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="171" t="s">
+      <c r="B1" s="182" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="173"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="184"/>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="182"/>
-      <c r="B2" s="174" t="s">
+      <c r="A2" s="192"/>
+      <c r="B2" s="185" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="187" t="s">
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="174" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="189" t="s">
+      <c r="H2" s="178" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="190"/>
+      <c r="I2" s="179"/>
       <c r="J2" s="19">
         <v>0.85</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="183"/>
-      <c r="B3" s="177"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="179"/>
-      <c r="G3" s="188"/>
-      <c r="H3" s="189" t="s">
+      <c r="A3" s="193"/>
+      <c r="B3" s="188"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="189"/>
+      <c r="F3" s="190"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="178" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="190"/>
+      <c r="I3" s="179"/>
       <c r="J3" s="20">
         <v>10</v>
       </c>
@@ -2978,10 +2980,10 @@
       <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="191" t="s">
+      <c r="H4" s="180" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="192"/>
+      <c r="I4" s="181"/>
       <c r="J4" s="23">
         <v>8.5</v>
       </c>
@@ -2994,10 +2996,10 @@
       <c r="E5" s="24"/>
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
-      <c r="H5" s="180" t="s">
+      <c r="H5" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="184"/>
+      <c r="I5" s="177"/>
       <c r="J5" s="27">
         <f>SUM(G5:G100)</f>
         <v>0</v>
@@ -3011,10 +3013,10 @@
       <c r="E6" s="24"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
-      <c r="H6" s="180" t="s">
+      <c r="H6" s="176" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="184"/>
+      <c r="I6" s="177"/>
       <c r="J6" s="28">
         <f>J5*0.05</f>
         <v>0</v>
@@ -3028,10 +3030,10 @@
       <c r="E7" s="24"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
-      <c r="H7" s="180" t="s">
+      <c r="H7" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="184"/>
+      <c r="I7" s="177"/>
       <c r="J7" s="28">
         <v>110</v>
       </c>
@@ -3044,10 +3046,10 @@
       <c r="E8" s="24"/>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
-      <c r="H8" s="180" t="s">
+      <c r="H8" s="176" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="184"/>
+      <c r="I8" s="177"/>
       <c r="J8" s="29">
         <v>150</v>
       </c>
@@ -3060,10 +3062,10 @@
       <c r="E9" s="24"/>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
-      <c r="H9" s="180" t="s">
+      <c r="H9" s="176" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="180"/>
+      <c r="I9" s="176"/>
       <c r="J9" s="30">
         <f>(PRECIO_VENTA*LITROS_A_ELABORAR)</f>
         <v>1500</v>
@@ -3077,10 +3079,10 @@
       <c r="E10" s="24"/>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
-      <c r="H10" s="180" t="s">
+      <c r="H10" s="176" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="180"/>
+      <c r="I10" s="176"/>
       <c r="J10" s="31">
         <f>J9-COSTO_TOTAL_MATERIA_PRIMA</f>
         <v>1500</v>
@@ -3094,10 +3096,10 @@
       <c r="E11" s="24"/>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
-      <c r="H11" s="185" t="s">
+      <c r="H11" s="172" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="186"/>
+      <c r="I11" s="173"/>
       <c r="J11" s="32">
         <v>0.27</v>
       </c>
@@ -3110,10 +3112,10 @@
       <c r="E12" s="24"/>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
-      <c r="H12" s="185" t="s">
+      <c r="H12" s="172" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="186"/>
+      <c r="I12" s="173"/>
       <c r="J12" s="32">
         <f>((J5+COSTO_PREPARACION)/J9-1)*(-1)</f>
         <v>0.92666666666666664</v>
@@ -3185,6 +3187,13 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="15">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H5:I5"/>
@@ -3193,13 +3202,6 @@
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H11:I11"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="J12">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
@@ -3215,23 +3217,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AE25"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="4" width="17.75" customWidth="1"/>
-    <col min="5" max="5" width="15.375" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
-    <col min="9" max="9" width="17.625" customWidth="1"/>
-    <col min="11" max="11" width="13.25" customWidth="1"/>
-    <col min="16" max="16" width="13.875" customWidth="1"/>
-    <col min="17" max="17" width="23.625" customWidth="1"/>
-    <col min="18" max="18" width="15.875" customWidth="1"/>
+    <col min="2" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" customWidth="1"/>
+    <col min="17" max="17" width="23.5703125" customWidth="1"/>
+    <col min="18" max="18" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3257,22 +3259,22 @@
       <c r="P1" s="81"/>
       <c r="Q1" s="81"/>
       <c r="R1" s="81"/>
-      <c r="S1" s="193" t="s">
+      <c r="S1" s="194" t="s">
         <v>60</v>
       </c>
-      <c r="T1" s="194"/>
-      <c r="U1" s="193" t="s">
+      <c r="T1" s="195"/>
+      <c r="U1" s="194" t="s">
         <v>61</v>
       </c>
-      <c r="V1" s="194"/>
-      <c r="W1" s="193" t="s">
+      <c r="V1" s="195"/>
+      <c r="W1" s="194" t="s">
         <v>62</v>
       </c>
-      <c r="X1" s="194"/>
-      <c r="Y1" s="193" t="s">
+      <c r="X1" s="195"/>
+      <c r="Y1" s="194" t="s">
         <v>63</v>
       </c>
-      <c r="Z1" s="194"/>
+      <c r="Z1" s="195"/>
       <c r="AA1" s="81"/>
       <c r="AB1" s="81"/>
       <c r="AC1" s="81"/>
@@ -4021,55 +4023,55 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.75" customWidth="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1"/>
-    <col min="5" max="5" width="3.75" customWidth="1"/>
-    <col min="9" max="9" width="5.625" customWidth="1"/>
-    <col min="10" max="10" width="2.25" customWidth="1"/>
-    <col min="11" max="11" width="16.125" customWidth="1"/>
-    <col min="12" max="12" width="15.25" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" customWidth="1"/>
+    <col min="10" max="10" width="2.28515625" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="201"/>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
-      <c r="I1" s="201"/>
-      <c r="J1" s="201"/>
-      <c r="K1" s="201"/>
-      <c r="L1" s="201"/>
-      <c r="M1" s="201"/>
-      <c r="N1" s="201"/>
+      <c r="A1" s="221"/>
+      <c r="B1" s="221"/>
+      <c r="C1" s="221"/>
+      <c r="D1" s="221"/>
+      <c r="E1" s="221"/>
+      <c r="F1" s="221"/>
+      <c r="G1" s="221"/>
+      <c r="H1" s="221"/>
+      <c r="I1" s="221"/>
+      <c r="J1" s="221"/>
+      <c r="K1" s="221"/>
+      <c r="L1" s="221"/>
+      <c r="M1" s="221"/>
+      <c r="N1" s="221"/>
     </row>
     <row r="2" spans="1:16" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="201"/>
-      <c r="B2" s="201"/>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="201"/>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="201"/>
-      <c r="N2" s="201"/>
+      <c r="A2" s="221"/>
+      <c r="B2" s="221"/>
+      <c r="C2" s="221"/>
+      <c r="D2" s="221"/>
+      <c r="E2" s="221"/>
+      <c r="F2" s="221"/>
+      <c r="G2" s="221"/>
+      <c r="H2" s="221"/>
+      <c r="I2" s="221"/>
+      <c r="J2" s="221"/>
+      <c r="K2" s="221"/>
+      <c r="L2" s="221"/>
+      <c r="M2" s="221"/>
+      <c r="N2" s="221"/>
     </row>
     <row r="3" spans="1:16" s="122" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="123"/>
@@ -4091,8 +4093,8 @@
       <c r="A4" s="124" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="195"/>
-      <c r="C4" s="195"/>
+      <c r="B4" s="215"/>
+      <c r="C4" s="215"/>
       <c r="D4" s="96"/>
       <c r="E4" s="96"/>
       <c r="F4" s="129" t="s">
@@ -4101,11 +4103,11 @@
       <c r="G4" s="129" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="217" t="s">
+      <c r="H4" s="208" t="s">
         <v>82</v>
       </c>
-      <c r="I4" s="217"/>
-      <c r="J4" s="217"/>
+      <c r="I4" s="208"/>
+      <c r="J4" s="208"/>
       <c r="K4" s="130" t="s">
         <v>83</v>
       </c>
@@ -4121,7 +4123,7 @@
       <c r="P4" s="109"/>
     </row>
     <row r="5" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="196" t="s">
+      <c r="A5" s="216" t="s">
         <v>86</v>
       </c>
       <c r="B5" s="97"/>
@@ -4132,16 +4134,16 @@
       <c r="E5" s="98"/>
       <c r="F5" s="99"/>
       <c r="G5" s="100"/>
-      <c r="H5" s="202"/>
-      <c r="I5" s="203"/>
-      <c r="J5" s="204"/>
+      <c r="H5" s="212"/>
+      <c r="I5" s="213"/>
+      <c r="J5" s="214"/>
       <c r="K5" s="100"/>
       <c r="L5" s="101"/>
       <c r="M5" s="102"/>
       <c r="N5" s="103"/>
     </row>
     <row r="6" spans="1:16" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="197"/>
+      <c r="A6" s="217"/>
       <c r="B6" s="106"/>
       <c r="C6" s="108" t="s">
         <v>88</v>
@@ -4154,17 +4156,17 @@
       <c r="G6" s="129" t="s">
         <v>90</v>
       </c>
-      <c r="H6" s="218" t="s">
+      <c r="H6" s="209" t="s">
         <v>91</v>
       </c>
-      <c r="I6" s="219"/>
-      <c r="J6" s="219"/>
-      <c r="K6" s="219"/>
-      <c r="L6" s="220"/>
-      <c r="M6" s="198" t="s">
+      <c r="I6" s="210"/>
+      <c r="J6" s="210"/>
+      <c r="K6" s="210"/>
+      <c r="L6" s="211"/>
+      <c r="M6" s="218" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="199"/>
+      <c r="N6" s="219"/>
     </row>
     <row r="7" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="125" t="s">
@@ -4182,13 +4184,13 @@
       <c r="E7" s="111"/>
       <c r="F7" s="119"/>
       <c r="G7" s="104"/>
-      <c r="H7" s="202"/>
-      <c r="I7" s="203"/>
-      <c r="J7" s="203"/>
-      <c r="K7" s="203"/>
-      <c r="L7" s="204"/>
-      <c r="M7" s="200"/>
-      <c r="N7" s="200"/>
+      <c r="H7" s="212"/>
+      <c r="I7" s="213"/>
+      <c r="J7" s="213"/>
+      <c r="K7" s="213"/>
+      <c r="L7" s="214"/>
+      <c r="M7" s="220"/>
+      <c r="N7" s="220"/>
     </row>
     <row r="8" spans="1:16" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="167"/>
@@ -4212,19 +4214,19 @@
       <c r="C9" s="155"/>
       <c r="D9" s="156"/>
       <c r="E9" s="112"/>
-      <c r="F9" s="214" t="s">
+      <c r="F9" s="205" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="215"/>
-      <c r="H9" s="215"/>
-      <c r="I9" s="215"/>
-      <c r="J9" s="215"/>
-      <c r="K9" s="216"/>
-      <c r="L9" s="214" t="s">
+      <c r="G9" s="206"/>
+      <c r="H9" s="206"/>
+      <c r="I9" s="206"/>
+      <c r="J9" s="206"/>
+      <c r="K9" s="207"/>
+      <c r="L9" s="205" t="s">
         <v>94</v>
       </c>
-      <c r="M9" s="215"/>
-      <c r="N9" s="216"/>
+      <c r="M9" s="206"/>
+      <c r="N9" s="207"/>
     </row>
     <row r="10" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="154"/>
@@ -4232,15 +4234,15 @@
       <c r="C10" s="157"/>
       <c r="D10" s="158"/>
       <c r="E10" s="112"/>
-      <c r="F10" s="205"/>
-      <c r="G10" s="206"/>
-      <c r="H10" s="206"/>
-      <c r="I10" s="206"/>
-      <c r="J10" s="206"/>
-      <c r="K10" s="207"/>
-      <c r="L10" s="205"/>
-      <c r="M10" s="206"/>
-      <c r="N10" s="207"/>
+      <c r="F10" s="196"/>
+      <c r="G10" s="197"/>
+      <c r="H10" s="197"/>
+      <c r="I10" s="197"/>
+      <c r="J10" s="197"/>
+      <c r="K10" s="198"/>
+      <c r="L10" s="196"/>
+      <c r="M10" s="197"/>
+      <c r="N10" s="198"/>
     </row>
     <row r="11" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="154"/>
@@ -4248,15 +4250,15 @@
       <c r="C11" s="157"/>
       <c r="D11" s="158"/>
       <c r="E11" s="112"/>
-      <c r="F11" s="208"/>
-      <c r="G11" s="209"/>
-      <c r="H11" s="209"/>
-      <c r="I11" s="209"/>
-      <c r="J11" s="209"/>
-      <c r="K11" s="210"/>
-      <c r="L11" s="208"/>
-      <c r="M11" s="209"/>
-      <c r="N11" s="210"/>
+      <c r="F11" s="199"/>
+      <c r="G11" s="200"/>
+      <c r="H11" s="200"/>
+      <c r="I11" s="200"/>
+      <c r="J11" s="200"/>
+      <c r="K11" s="201"/>
+      <c r="L11" s="199"/>
+      <c r="M11" s="200"/>
+      <c r="N11" s="201"/>
     </row>
     <row r="12" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="154"/>
@@ -4264,15 +4266,15 @@
       <c r="C12" s="157"/>
       <c r="D12" s="158"/>
       <c r="E12" s="112"/>
-      <c r="F12" s="208"/>
-      <c r="G12" s="209"/>
-      <c r="H12" s="209"/>
-      <c r="I12" s="209"/>
-      <c r="J12" s="209"/>
-      <c r="K12" s="210"/>
-      <c r="L12" s="208"/>
-      <c r="M12" s="209"/>
-      <c r="N12" s="210"/>
+      <c r="F12" s="199"/>
+      <c r="G12" s="200"/>
+      <c r="H12" s="200"/>
+      <c r="I12" s="200"/>
+      <c r="J12" s="200"/>
+      <c r="K12" s="201"/>
+      <c r="L12" s="199"/>
+      <c r="M12" s="200"/>
+      <c r="N12" s="201"/>
     </row>
     <row r="13" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="154"/>
@@ -4280,15 +4282,15 @@
       <c r="C13" s="155"/>
       <c r="D13" s="156"/>
       <c r="E13" s="112"/>
-      <c r="F13" s="208"/>
-      <c r="G13" s="209"/>
-      <c r="H13" s="209"/>
-      <c r="I13" s="209"/>
-      <c r="J13" s="209"/>
-      <c r="K13" s="210"/>
-      <c r="L13" s="208"/>
-      <c r="M13" s="209"/>
-      <c r="N13" s="210"/>
+      <c r="F13" s="199"/>
+      <c r="G13" s="200"/>
+      <c r="H13" s="200"/>
+      <c r="I13" s="200"/>
+      <c r="J13" s="200"/>
+      <c r="K13" s="201"/>
+      <c r="L13" s="199"/>
+      <c r="M13" s="200"/>
+      <c r="N13" s="201"/>
     </row>
     <row r="14" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="154"/>
@@ -4296,15 +4298,15 @@
       <c r="C14" s="155"/>
       <c r="D14" s="156"/>
       <c r="E14" s="112"/>
-      <c r="F14" s="208"/>
-      <c r="G14" s="209"/>
-      <c r="H14" s="209"/>
-      <c r="I14" s="209"/>
-      <c r="J14" s="209"/>
-      <c r="K14" s="210"/>
-      <c r="L14" s="208"/>
-      <c r="M14" s="209"/>
-      <c r="N14" s="210"/>
+      <c r="F14" s="199"/>
+      <c r="G14" s="200"/>
+      <c r="H14" s="200"/>
+      <c r="I14" s="200"/>
+      <c r="J14" s="200"/>
+      <c r="K14" s="201"/>
+      <c r="L14" s="199"/>
+      <c r="M14" s="200"/>
+      <c r="N14" s="201"/>
     </row>
     <row r="15" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="154"/>
@@ -4312,15 +4314,15 @@
       <c r="C15" s="155"/>
       <c r="D15" s="156"/>
       <c r="E15" s="112"/>
-      <c r="F15" s="208"/>
-      <c r="G15" s="209"/>
-      <c r="H15" s="209"/>
-      <c r="I15" s="209"/>
-      <c r="J15" s="209"/>
-      <c r="K15" s="210"/>
-      <c r="L15" s="208"/>
-      <c r="M15" s="209"/>
-      <c r="N15" s="210"/>
+      <c r="F15" s="199"/>
+      <c r="G15" s="200"/>
+      <c r="H15" s="200"/>
+      <c r="I15" s="200"/>
+      <c r="J15" s="200"/>
+      <c r="K15" s="201"/>
+      <c r="L15" s="199"/>
+      <c r="M15" s="200"/>
+      <c r="N15" s="201"/>
     </row>
     <row r="16" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="154"/>
@@ -4328,15 +4330,15 @@
       <c r="C16" s="155"/>
       <c r="D16" s="156"/>
       <c r="E16" s="112"/>
-      <c r="F16" s="208"/>
-      <c r="G16" s="209"/>
-      <c r="H16" s="209"/>
-      <c r="I16" s="209"/>
-      <c r="J16" s="209"/>
-      <c r="K16" s="210"/>
-      <c r="L16" s="208"/>
-      <c r="M16" s="209"/>
-      <c r="N16" s="210"/>
+      <c r="F16" s="199"/>
+      <c r="G16" s="200"/>
+      <c r="H16" s="200"/>
+      <c r="I16" s="200"/>
+      <c r="J16" s="200"/>
+      <c r="K16" s="201"/>
+      <c r="L16" s="199"/>
+      <c r="M16" s="200"/>
+      <c r="N16" s="201"/>
     </row>
     <row r="17" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="154"/>
@@ -4344,15 +4346,15 @@
       <c r="C17" s="155"/>
       <c r="D17" s="156"/>
       <c r="E17" s="112"/>
-      <c r="F17" s="208"/>
-      <c r="G17" s="209"/>
-      <c r="H17" s="209"/>
-      <c r="I17" s="209"/>
-      <c r="J17" s="209"/>
-      <c r="K17" s="210"/>
-      <c r="L17" s="208"/>
-      <c r="M17" s="209"/>
-      <c r="N17" s="210"/>
+      <c r="F17" s="199"/>
+      <c r="G17" s="200"/>
+      <c r="H17" s="200"/>
+      <c r="I17" s="200"/>
+      <c r="J17" s="200"/>
+      <c r="K17" s="201"/>
+      <c r="L17" s="199"/>
+      <c r="M17" s="200"/>
+      <c r="N17" s="201"/>
     </row>
     <row r="18" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="159"/>
@@ -4360,15 +4362,15 @@
       <c r="C18" s="155"/>
       <c r="D18" s="156"/>
       <c r="E18" s="112"/>
-      <c r="F18" s="208"/>
-      <c r="G18" s="209"/>
-      <c r="H18" s="209"/>
-      <c r="I18" s="209"/>
-      <c r="J18" s="209"/>
-      <c r="K18" s="210"/>
-      <c r="L18" s="208"/>
-      <c r="M18" s="209"/>
-      <c r="N18" s="210"/>
+      <c r="F18" s="199"/>
+      <c r="G18" s="200"/>
+      <c r="H18" s="200"/>
+      <c r="I18" s="200"/>
+      <c r="J18" s="200"/>
+      <c r="K18" s="201"/>
+      <c r="L18" s="199"/>
+      <c r="M18" s="200"/>
+      <c r="N18" s="201"/>
     </row>
     <row r="19" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="154" t="s">
@@ -4380,15 +4382,15 @@
       <c r="C19" s="155"/>
       <c r="D19" s="156"/>
       <c r="E19" s="112"/>
-      <c r="F19" s="208"/>
-      <c r="G19" s="209"/>
-      <c r="H19" s="209"/>
-      <c r="I19" s="209"/>
-      <c r="J19" s="209"/>
-      <c r="K19" s="210"/>
-      <c r="L19" s="208"/>
-      <c r="M19" s="209"/>
-      <c r="N19" s="210"/>
+      <c r="F19" s="199"/>
+      <c r="G19" s="200"/>
+      <c r="H19" s="200"/>
+      <c r="I19" s="200"/>
+      <c r="J19" s="200"/>
+      <c r="K19" s="201"/>
+      <c r="L19" s="199"/>
+      <c r="M19" s="200"/>
+      <c r="N19" s="201"/>
     </row>
     <row r="20" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="160"/>
@@ -4396,15 +4398,15 @@
       <c r="C20" s="161"/>
       <c r="D20" s="162"/>
       <c r="E20" s="112"/>
-      <c r="F20" s="211"/>
-      <c r="G20" s="212"/>
-      <c r="H20" s="212"/>
-      <c r="I20" s="212"/>
-      <c r="J20" s="212"/>
-      <c r="K20" s="213"/>
-      <c r="L20" s="211"/>
-      <c r="M20" s="212"/>
-      <c r="N20" s="213"/>
+      <c r="F20" s="202"/>
+      <c r="G20" s="203"/>
+      <c r="H20" s="203"/>
+      <c r="I20" s="203"/>
+      <c r="J20" s="203"/>
+      <c r="K20" s="204"/>
+      <c r="L20" s="202"/>
+      <c r="M20" s="203"/>
+      <c r="N20" s="204"/>
     </row>
     <row r="21" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="163"/>
@@ -4449,6 +4451,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="H5:J5"/>
     <mergeCell ref="L10:N20"/>
     <mergeCell ref="F10:K20"/>
     <mergeCell ref="F9:K9"/>
@@ -4456,12 +4464,6 @@
     <mergeCell ref="H6:L6"/>
     <mergeCell ref="H7:L7"/>
     <mergeCell ref="L9:N9"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="H5:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="271" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4469,39 +4471,39 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="44.125" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="9.625" customWidth="1"/>
-    <col min="5" max="5" width="15.875" customWidth="1"/>
+    <col min="2" max="2" width="44.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="221" t="s">
+      <c r="B1" s="222" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="221"/>
+      <c r="C1" s="222"/>
       <c r="D1" s="135"/>
       <c r="E1" s="135"/>
     </row>
     <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="221"/>
-      <c r="C2" s="221"/>
+      <c r="B2" s="222"/>
+      <c r="C2" s="222"/>
       <c r="D2" s="143"/>
       <c r="E2" s="142"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="221"/>
-      <c r="C3" s="221"/>
+      <c r="B3" s="222"/>
+      <c r="C3" s="222"/>
       <c r="E3" s="136"/>
     </row>
     <row r="4" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -4749,53 +4751,53 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="223" t="s">
+      <c r="C1" s="224" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="223"/>
-      <c r="E1" s="223"/>
-      <c r="F1" s="223"/>
+      <c r="D1" s="224"/>
+      <c r="E1" s="224"/>
+      <c r="F1" s="224"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="223"/>
-      <c r="D2" s="223"/>
-      <c r="E2" s="223"/>
-      <c r="F2" s="223"/>
+      <c r="C2" s="224"/>
+      <c r="D2" s="224"/>
+      <c r="E2" s="224"/>
+      <c r="F2" s="224"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="223"/>
-      <c r="D3" s="223"/>
-      <c r="E3" s="223"/>
-      <c r="F3" s="223"/>
+      <c r="C3" s="224"/>
+      <c r="D3" s="224"/>
+      <c r="E3" s="224"/>
+      <c r="F3" s="224"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="224"/>
-      <c r="D4" s="224"/>
-      <c r="E4" s="224"/>
-      <c r="F4" s="224"/>
+      <c r="C4" s="225"/>
+      <c r="D4" s="225"/>
+      <c r="E4" s="225"/>
+      <c r="F4" s="225"/>
     </row>
     <row r="5" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="222" t="s">
+      <c r="A5" s="223" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="222"/>
-      <c r="C5" s="222"/>
-      <c r="D5" s="222"/>
-      <c r="E5" s="222"/>
-      <c r="F5" s="222"/>
+      <c r="B5" s="223"/>
+      <c r="C5" s="223"/>
+      <c r="D5" s="223"/>
+      <c r="E5" s="223"/>
+      <c r="F5" s="223"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="134" t="s">
